--- a/12. Gráficos/Gráficos - Como Criar um Gráfico no Excel - Gráficos.xlsx
+++ b/12. Gráficos/Gráficos - Como Criar um Gráfico no Excel - Gráficos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\Projetos Programação\Especializacao-em-Analise-de-Dados\12. Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B76933-97D4-4BC9-BC4F-76B5CB035846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9281A65-BEB1-4F0C-BF8C-9A4C6C8AF1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico de Colunas" sheetId="1" r:id="rId1"/>
@@ -62,17 +62,28 @@
     <definedName name="Username" localSheetId="3">#REF!</definedName>
     <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Vendas</t>
   </si>
@@ -220,15 +231,19 @@
   <si>
     <t>Metas</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +315,13 @@
       <b/>
       <sz val="11"/>
       <color theme="8" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,10 +502,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,12 +572,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,8 +586,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -621,14 +646,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -670,13 +687,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -690,6 +700,21 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,7 +1273,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1425,7 +1450,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2325,6 +2350,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="622124192"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2370,6 +2396,961 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Projetos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> consultoria</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos de BI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDD1-4030-9ECC-FBDBA21A702B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos de Processos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDD1-4030-9ECC-FBDBA21A702B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projetos Jurídicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDD1-4030-9ECC-FBDBA21A702B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico de Colunas Empilhadas'!$E$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDD1-4030-9ECC-FBDBA21A702B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2020543008"/>
+        <c:axId val="2020567488"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2020543008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2020567488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2020567488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2020543008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
@@ -2533,6 +3514,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -4001,6 +5022,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4156,11 +5682,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315192</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>58881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>498764</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7120BA-3535-2011-319F-67AD999B0617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD360B5F-F236-455F-9EC2-F680B0CA99B2}" name="Tabela1" displayName="Tabela1" ref="B2:D14" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD360B5F-F236-455F-9EC2-F680B0CA99B2}" name="Tabela1" displayName="Tabela1" ref="B2:D14" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B2:D14" xr:uid="{AD360B5F-F236-455F-9EC2-F680B0CA99B2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{122E3046-A133-4424-91BB-D8EE52242032}" name="Mês" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{122E3046-A133-4424-91BB-D8EE52242032}" name="Mês" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{39D33938-D92A-4436-BF36-12AD8D4D3808}" name="Vendas" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{779988EC-1F31-4D14-AB8A-8750F91C8955}" name="Metas" dataDxfId="0"/>
   </tableColumns>
@@ -4446,145 +6013,145 @@
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>5318</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>1692</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>5977</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>9258</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>8111</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>4639</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>6895</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>9620</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>7443</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>3177</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>5780</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>7000</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>6500</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>7000</v>
       </c>
     </row>
@@ -4768,7 +6335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9466A54-5353-412D-BA0C-0F8BE7522934}">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4786,12 +6353,12 @@
   <sheetData>
     <row r="1" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
+      <c r="B3" s="34"/>
       <c r="D3" s="15" t="s">
         <v>37</v>
       </c>
@@ -4984,7 +6551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946B274-1865-4279-A5EA-41A02BBB26AA}">
   <dimension ref="B1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4992,11 +6561,12 @@
     <col min="2" max="2" width="73.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.5546875" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5040,7 +6610,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
+      <c r="B3" s="35"/>
       <c r="D3" s="24" t="s">
         <v>44</v>
       </c>
@@ -5082,7 +6652,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
+      <c r="B4" s="35"/>
       <c r="D4" s="22" t="s">
         <v>42</v>
       </c>
@@ -5123,7 +6693,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D5" s="20" t="s">
         <v>40</v>
       </c>
@@ -5164,9 +6734,60 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="33">
+        <f>SUM(E3:E5)</f>
+        <v>2770</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" ref="F6:N6" si="0">SUM(F3:F5)</f>
+        <v>1740</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="0"/>
+        <v>2648</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="0"/>
+        <v>2120</v>
+      </c>
+      <c r="I6" s="33">
+        <f t="shared" si="0"/>
+        <v>3266</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" si="0"/>
+        <v>3331</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" si="0"/>
+        <v>2781</v>
+      </c>
+      <c r="L6" s="33">
+        <f t="shared" si="0"/>
+        <v>3229</v>
+      </c>
+      <c r="M6" s="33">
+        <f t="shared" si="0"/>
+        <v>3936</v>
+      </c>
+      <c r="N6" s="33">
+        <f t="shared" si="0"/>
+        <v>2994</v>
+      </c>
+      <c r="O6" s="33">
+        <f>SUM(O3:O5)</f>
+        <v>4554</v>
+      </c>
+      <c r="P6" s="33">
+        <f>SUM(P3:P5)</f>
+        <v>2797</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -5200,5 +6821,6 @@
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>